--- a/export/v1.0.8/Changelog-raw.xlsx
+++ b/export/v1.0.8/Changelog-raw.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="528">
   <si>
     <t xml:space="preserve">CODE</t>
   </si>
@@ -55,6 +55,84 @@
     <t xml:space="preserve">KOREAN</t>
   </si>
   <si>
+    <t xml:space="preserve">V1.0.8b_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1.0.8b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1.0.8b_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Fixed the queen being invisible after spawning her in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1.0.8b_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1.0.8a_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1.0.8a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1.0.8a_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Catched several errors causing all ants to stop moving, one in the assembler and one in the catapult.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1.0.8a_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Renamed "ion workers" to "battery workers"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1.0.8a_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Fixed the click UI not working correctly with a very low framerate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1.0.8a_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Fixed ants being confused by many action points.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1.0.8a_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Fixed mismatch in building percentages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1.0.8a_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tweaked facility and smart dispenser collider, can now be placed together more neatly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1.0.8a_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Fixed typo in Japanese.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1.0.8a_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Fixed a few errors with colliders from islands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1.0.8a_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Several optimisation fixes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1.0.8a_10</t>
+  </si>
+  <si>
     <t xml:space="preserve">V1.0.8_0</t>
   </si>
   <si>
@@ -82,7 +160,7 @@
     <t xml:space="preserve">V1.0.8_4</t>
   </si>
   <si>
-    <t xml:space="preserve">- Catapults won't display a warning any longer if the target stockpile can't recieve the item.</t>
+    <t xml:space="preserve">- Catapults won't display a warning any longer if the target stockpile can't receive the item.</t>
   </si>
   <si>
     <t xml:space="preserve">V1.0.8_5</t>
@@ -124,9 +202,6 @@
     <t xml:space="preserve">V1.0.8_11</t>
   </si>
   <si>
-    <t xml:space="preserve">- Fixed typo in Japanese.</t>
-  </si>
-  <si>
     <t xml:space="preserve">V1.0.8_12</t>
   </si>
   <si>
@@ -196,7 +271,7 @@
     <t xml:space="preserve">V1.0.8_23</t>
   </si>
   <si>
-    <t xml:space="preserve">- Fixed a few instances where the tooltip didn't properly dissapeared.</t>
+    <t xml:space="preserve">- Fixed a few instances where the tooltip didn't properly disappear.</t>
   </si>
   <si>
     <t xml:space="preserve">V1.0.8_24</t>
@@ -1713,7 +1788,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1732,6 +1807,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1964,7 +2043,7 @@
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2037,7 +2116,7 @@
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2053,567 +2132,569 @@
       <c r="A5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>16</v>
-      </c>
+      <c r="C5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>38</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="0"/>
+        <v>62</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>93</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="0"/>
+        <v>91</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>122</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C66" s="0"/>
+        <v>132</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="0"/>
+        <v>138</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>147</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
@@ -2643,155 +2724,155 @@
       <c r="A80" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>161</v>
-      </c>
+      <c r="C80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="0" t="s">
         <v>162</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>167</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="C87" s="0"/>
+        <v>172</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>180</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="C92" s="0"/>
+        <v>181</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
@@ -2805,2485 +2886,2592 @@
       <c r="A101" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="C101" s="0" t="s">
-        <v>200</v>
-      </c>
+      <c r="C101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>210</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="C109" s="0"/>
+        <v>213</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>220</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>223</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="C119" s="0"/>
+        <v>232</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C120" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C121" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>242</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="C131" s="0"/>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="7" t="s">
+      <c r="C132" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="C132" s="0" t="s">
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="7" t="s">
+      <c r="C133" s="0"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C134" s="0" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="7" t="s">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C135" s="0" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="7" t="s">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C136" s="0" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="7" t="s">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C137" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7" t="s">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C138" s="0" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="7" t="s">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C139" s="0" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7" t="s">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C140" s="0" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="7" t="s">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C141" s="0" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="7" t="s">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C142" s="0" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="7" t="s">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C143" s="0" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="7" t="s">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="C143" s="0"/>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="7" t="s">
+      <c r="C144" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="C144" s="1" t="s">
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="7" t="s">
+      <c r="C145" s="0"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="C146" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="D145" s="7"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="9"/>
-      <c r="K145" s="8"/>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="7" t="s">
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C147" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="D146" s="6"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="9"/>
-      <c r="K146" s="8"/>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="7" t="s">
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C148" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="D147" s="6"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="10"/>
-      <c r="K147" s="7"/>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="7" t="s">
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="9"/>
-      <c r="J148" s="9"/>
-      <c r="K148" s="8"/>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="7" t="s">
+      <c r="C149" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="C149" s="6" t="s">
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D149" s="6"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="10"/>
-      <c r="K149" s="7"/>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="7" t="s">
+      <c r="C150" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="C150" s="6" t="s">
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D150" s="7"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="9"/>
-      <c r="J150" s="9"/>
-      <c r="K150" s="8"/>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="7" t="s">
+      <c r="C151" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="C151" s="6" t="s">
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="D151" s="6"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
-      <c r="I151" s="10"/>
-      <c r="J151" s="10"/>
-      <c r="K151" s="7"/>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="7" t="s">
+      <c r="C152" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="C152" s="6" t="s">
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D152" s="7"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="9"/>
-      <c r="J152" s="9"/>
-      <c r="K152" s="8"/>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="7" t="s">
+      <c r="C153" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="C153" s="6" t="s">
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="10"/>
-      <c r="J153" s="10"/>
-      <c r="K153" s="7"/>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="7" t="s">
+      <c r="C154" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="C154" s="6"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="7"/>
-      <c r="J154" s="7"/>
-      <c r="K154" s="7"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="D155" s="6"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="9"/>
-      <c r="J155" s="9"/>
-      <c r="K155" s="8"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="7" t="s">
+      <c r="A156" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C156" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="D156" s="7"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="9"/>
-      <c r="J156" s="9"/>
-      <c r="K156" s="8"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="7" t="s">
+      <c r="A157" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
-      <c r="I157" s="10"/>
-      <c r="J157" s="10"/>
-      <c r="K157" s="7"/>
+      <c r="C157" s="0"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C158" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D158" s="11"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="9"/>
-      <c r="J158" s="9"/>
-      <c r="K158" s="8"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="7" t="s">
+      <c r="A159" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="C159" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D159" s="11"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
       <c r="I159" s="10"/>
       <c r="J159" s="10"/>
-      <c r="K159" s="7"/>
+      <c r="K159" s="9"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="7" t="s">
+      <c r="A160" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C160" s="11" t="s">
+      <c r="C160" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D160" s="11"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="9"/>
-      <c r="K160" s="8"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="10"/>
+      <c r="K160" s="9"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="7" t="s">
+      <c r="A161" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C161" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D161" s="11"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
-      <c r="I161" s="10"/>
-      <c r="J161" s="10"/>
-      <c r="K161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="8"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="7" t="s">
+      <c r="A162" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="10"/>
+      <c r="K162" s="9"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D162" s="11"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="9"/>
-      <c r="J162" s="9"/>
-      <c r="K162" s="8"/>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="7" t="s">
+      <c r="C163" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C163" s="11" t="s">
+      <c r="D163" s="7"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="11"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="8"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="D163" s="11"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
-      <c r="I163" s="10"/>
-      <c r="J163" s="10"/>
-      <c r="K163" s="7"/>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="7" t="s">
+      <c r="C164" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="D164" s="8"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="10"/>
+      <c r="K164" s="9"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D164" s="11"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="9"/>
-      <c r="J164" s="9"/>
-      <c r="K164" s="8"/>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="7" t="s">
+      <c r="C165" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="D165" s="7"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="11"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="8"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="D165" s="11"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
-      <c r="I165" s="10"/>
-      <c r="J165" s="10"/>
-      <c r="K165" s="7"/>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="7" t="s">
+      <c r="C166" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="9"/>
-      <c r="J166" s="9"/>
-      <c r="K166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="10"/>
+      <c r="K166" s="9"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="7" t="s">
+      <c r="A167" s="8" t="s">
         <v>323</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="D167" s="7"/>
+      <c r="D167" s="8"/>
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
-      <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
+      <c r="I167" s="11"/>
+      <c r="J167" s="11"/>
       <c r="K167" s="8"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="7" t="s">
+      <c r="A168" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C168" s="7"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D168" s="7"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12"/>
-      <c r="G168" s="12"/>
-      <c r="H168" s="12"/>
-      <c r="I168" s="9"/>
-      <c r="J168" s="9"/>
-      <c r="K168" s="8"/>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="7" t="s">
+      <c r="C169" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
       <c r="I169" s="10"/>
       <c r="J169" s="10"/>
-      <c r="K169" s="7"/>
+      <c r="K169" s="9"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="7" t="s">
+      <c r="A170" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C170" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="D170" s="11"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
-      <c r="I170" s="9"/>
-      <c r="J170" s="9"/>
-      <c r="K170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="10"/>
+      <c r="K170" s="9"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="7" t="s">
+      <c r="A171" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C171" s="7" t="s">
-        <v>331</v>
-      </c>
+      <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
-      <c r="I171" s="9"/>
-      <c r="J171" s="9"/>
+      <c r="I171" s="11"/>
+      <c r="J171" s="11"/>
       <c r="K171" s="8"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="7" t="s">
+      <c r="A172" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C172" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="C172" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="D172" s="11"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
       <c r="I172" s="10"/>
       <c r="J172" s="10"/>
-      <c r="K172" s="7"/>
+      <c r="K172" s="9"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="7" t="s">
+      <c r="A173" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C173" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="C173" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="D173" s="11"/>
+      <c r="D173" s="12"/>
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
-      <c r="I173" s="9"/>
-      <c r="J173" s="9"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
       <c r="K173" s="8"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="7" t="s">
+      <c r="A174" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C174" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C174" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="D174" s="11"/>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="7"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
       <c r="I174" s="10"/>
       <c r="J174" s="10"/>
-      <c r="K174" s="7"/>
+      <c r="K174" s="9"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="7" t="s">
+      <c r="A175" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C175" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="C175" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="D175" s="11"/>
+      <c r="D175" s="12"/>
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
-      <c r="I175" s="9"/>
-      <c r="J175" s="9"/>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11"/>
       <c r="K175" s="8"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="7" t="s">
+      <c r="A176" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C176" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="C176" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="D176" s="11"/>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
       <c r="I176" s="10"/>
       <c r="J176" s="10"/>
-      <c r="K176" s="7"/>
+      <c r="K176" s="9"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="7" t="s">
+      <c r="A177" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C177" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="C177" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="D177" s="11"/>
+      <c r="D177" s="12"/>
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
-      <c r="I177" s="9"/>
-      <c r="J177" s="9"/>
+      <c r="I177" s="11"/>
+      <c r="J177" s="11"/>
       <c r="K177" s="8"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="7" t="s">
+      <c r="A178" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C178" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C178" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="D178" s="11"/>
-      <c r="E178" s="7"/>
-      <c r="F178" s="7"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="7"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
       <c r="I178" s="10"/>
       <c r="J178" s="10"/>
-      <c r="K178" s="7"/>
+      <c r="K178" s="9"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="7" t="s">
+      <c r="A179" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C179" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
+      <c r="D179" s="12"/>
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
-      <c r="I179" s="9"/>
-      <c r="J179" s="9"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
       <c r="K179" s="8"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="7" t="s">
+      <c r="A180" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C180" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="D180" s="11"/>
-      <c r="E180" s="7"/>
-      <c r="F180" s="7"/>
-      <c r="G180" s="7"/>
-      <c r="H180" s="7"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
       <c r="I180" s="10"/>
       <c r="J180" s="10"/>
-      <c r="K180" s="7"/>
+      <c r="K180" s="9"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="7" t="s">
+      <c r="A181" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C181" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B181" s="13"/>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="8"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="10"/>
+      <c r="K181" s="9"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="E181" s="7"/>
-      <c r="F181" s="7"/>
-      <c r="G181" s="7"/>
-      <c r="H181" s="7"/>
-      <c r="I181" s="7"/>
-      <c r="J181" s="7"/>
-      <c r="K181" s="7"/>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="7" t="s">
+      <c r="C182" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C182" s="7" t="s">
+      <c r="D182" s="8"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="13"/>
+      <c r="H182" s="13"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="10"/>
+      <c r="K182" s="9"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D182" s="7"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="9"/>
-      <c r="J182" s="9"/>
-      <c r="K182" s="8"/>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="7" t="s">
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="11"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="8"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C183" s="7" t="s">
+      <c r="C184" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7"/>
-      <c r="F183" s="7"/>
-      <c r="G183" s="7"/>
-      <c r="H183" s="7"/>
-      <c r="I183" s="10"/>
-      <c r="J183" s="10"/>
-      <c r="K183" s="7"/>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="D184" s="7"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="7"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
       <c r="I184" s="10"/>
       <c r="J184" s="10"/>
-      <c r="K184" s="7"/>
+      <c r="K184" s="9"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
+      <c r="A185" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D185" s="8"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="9"/>
       <c r="I185" s="10"/>
       <c r="J185" s="10"/>
-      <c r="K185" s="7"/>
+      <c r="K185" s="9"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="7" t="s">
+      <c r="A186" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D186" s="12"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="11"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="8"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C186" s="7" t="s">
+      <c r="C187" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="D186" s="7"/>
-      <c r="E186" s="7"/>
-      <c r="F186" s="7"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="7"/>
-      <c r="I186" s="10"/>
-      <c r="J186" s="10"/>
-      <c r="K186" s="7"/>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D187" s="7"/>
-      <c r="E187" s="7"/>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="7"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
       <c r="I187" s="10"/>
       <c r="J187" s="10"/>
-      <c r="K187" s="7"/>
+      <c r="K187" s="9"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="7" t="s">
+      <c r="A188" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D188" s="12"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="11"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="8"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C188" s="7" t="s">
+      <c r="C189" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D188" s="7"/>
-      <c r="E188" s="7"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="7"/>
-      <c r="H188" s="7"/>
-      <c r="I188" s="10"/>
-      <c r="J188" s="10"/>
-      <c r="K188" s="7"/>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="D189" s="7"/>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="7"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="9"/>
       <c r="I189" s="10"/>
       <c r="J189" s="10"/>
-      <c r="K189" s="7"/>
+      <c r="K189" s="9"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="7" t="s">
+      <c r="A190" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D190" s="12"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="8"/>
+      <c r="I190" s="11"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="8"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="C191" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="D190" s="7"/>
-      <c r="E190" s="7"/>
-      <c r="F190" s="7"/>
-      <c r="G190" s="7"/>
-      <c r="H190" s="7"/>
-      <c r="I190" s="10"/>
-      <c r="J190" s="10"/>
-      <c r="K190" s="7"/>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="D191" s="7"/>
-      <c r="E191" s="7"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
-      <c r="H191" s="7"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
       <c r="I191" s="10"/>
       <c r="J191" s="10"/>
-      <c r="K191" s="7"/>
+      <c r="K191" s="9"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="7" t="s">
+      <c r="A192" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D192" s="12"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="11"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="8"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C192" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="D192" s="7"/>
-      <c r="E192" s="7"/>
-      <c r="F192" s="7"/>
-      <c r="G192" s="7"/>
-      <c r="H192" s="7"/>
-      <c r="I192" s="10"/>
-      <c r="J192" s="10"/>
-      <c r="K192" s="7"/>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="D193" s="7"/>
-      <c r="E193" s="7"/>
-      <c r="F193" s="7"/>
-      <c r="G193" s="7"/>
-      <c r="H193" s="7"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="9"/>
       <c r="I193" s="10"/>
       <c r="J193" s="10"/>
-      <c r="K193" s="7"/>
+      <c r="K193" s="9"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="7" t="s">
+      <c r="A194" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D194" s="12"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
+      <c r="H194" s="8"/>
+      <c r="I194" s="11"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="8"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B195" s="14"/>
+      <c r="C195" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C194" s="7"/>
-      <c r="D194" s="7"/>
-      <c r="E194" s="7"/>
-      <c r="F194" s="7"/>
-      <c r="G194" s="7"/>
-      <c r="H194" s="7"/>
-      <c r="I194" s="10"/>
-      <c r="J194" s="10"/>
-      <c r="K194" s="7"/>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="7" t="s">
+      <c r="E195" s="8"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="8"/>
+      <c r="H195" s="8"/>
+      <c r="I195" s="8"/>
+      <c r="J195" s="8"/>
+      <c r="K195" s="8"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C195" s="7" t="s">
+      <c r="C196" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="D195" s="7"/>
-      <c r="E195" s="7"/>
-      <c r="F195" s="7"/>
-      <c r="G195" s="7"/>
-      <c r="H195" s="7"/>
-      <c r="I195" s="10"/>
-      <c r="J195" s="10"/>
-      <c r="K195" s="7"/>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D196" s="7"/>
-      <c r="E196" s="7"/>
-      <c r="F196" s="7"/>
-      <c r="G196" s="7"/>
-      <c r="H196" s="7"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
       <c r="I196" s="10"/>
       <c r="J196" s="10"/>
-      <c r="K196" s="7"/>
+      <c r="K196" s="9"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="7" t="s">
+      <c r="A197" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D197" s="8"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+      <c r="H197" s="8"/>
+      <c r="I197" s="11"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="8"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C197" s="7" t="s">
+      <c r="C198" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="D197" s="7"/>
-      <c r="E197" s="7"/>
-      <c r="F197" s="7"/>
-      <c r="G197" s="7"/>
-      <c r="H197" s="7"/>
-      <c r="I197" s="10"/>
-      <c r="J197" s="10"/>
-      <c r="K197" s="7"/>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="7" t="s">
+      <c r="D198" s="8"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="8"/>
+      <c r="H198" s="8"/>
+      <c r="I198" s="11"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="8"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C198" s="7" t="s">
+      <c r="C199" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="D198" s="7"/>
-      <c r="E198" s="7"/>
-      <c r="F198" s="7"/>
-      <c r="G198" s="7"/>
-      <c r="H198" s="7"/>
-      <c r="I198" s="10"/>
-      <c r="J198" s="10"/>
-      <c r="K198" s="7"/>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="7" t="s">
+      <c r="D199" s="8"/>
+      <c r="E199" s="8"/>
+      <c r="F199" s="8"/>
+      <c r="G199" s="8"/>
+      <c r="H199" s="8"/>
+      <c r="I199" s="11"/>
+      <c r="J199" s="11"/>
+      <c r="K199" s="8"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C199" s="7" t="s">
+      <c r="C200" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="D199" s="7"/>
-      <c r="E199" s="7"/>
-      <c r="F199" s="7"/>
-      <c r="G199" s="7"/>
-      <c r="H199" s="7"/>
-      <c r="I199" s="10"/>
-      <c r="J199" s="10"/>
-      <c r="K199" s="7"/>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="7" t="s">
+      <c r="D200" s="8"/>
+      <c r="E200" s="8"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="8"/>
+      <c r="H200" s="8"/>
+      <c r="I200" s="11"/>
+      <c r="J200" s="11"/>
+      <c r="K200" s="8"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="7"/>
-      <c r="F200" s="7"/>
-      <c r="G200" s="7"/>
-      <c r="H200" s="7"/>
-      <c r="I200" s="10"/>
-      <c r="J200" s="10"/>
-      <c r="K200" s="7"/>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="7" t="s">
+      <c r="C201" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C201" s="7" t="s">
+      <c r="D201" s="8"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
+      <c r="H201" s="8"/>
+      <c r="I201" s="11"/>
+      <c r="J201" s="11"/>
+      <c r="K201" s="8"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="D201" s="7"/>
-      <c r="E201" s="7"/>
-      <c r="F201" s="7"/>
-      <c r="G201" s="7"/>
-      <c r="H201" s="7"/>
-      <c r="I201" s="10"/>
-      <c r="J201" s="10"/>
-      <c r="K201" s="7"/>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="7" t="s">
+      <c r="C202" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C202" s="7" t="s">
+      <c r="D202" s="8"/>
+      <c r="E202" s="8"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="8"/>
+      <c r="H202" s="8"/>
+      <c r="I202" s="11"/>
+      <c r="J202" s="11"/>
+      <c r="K202" s="8"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="D202" s="7"/>
-      <c r="E202" s="7"/>
-      <c r="F202" s="7"/>
-      <c r="G202" s="7"/>
-      <c r="H202" s="7"/>
-      <c r="I202" s="10"/>
-      <c r="J202" s="10"/>
-      <c r="K202" s="7"/>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="7" t="s">
+      <c r="C203" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C203" s="7" t="s">
+      <c r="D203" s="8"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="8"/>
+      <c r="H203" s="8"/>
+      <c r="I203" s="11"/>
+      <c r="J203" s="11"/>
+      <c r="K203" s="8"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="D203" s="7"/>
-      <c r="E203" s="7"/>
-      <c r="F203" s="7"/>
-      <c r="G203" s="7"/>
-      <c r="H203" s="7"/>
-      <c r="I203" s="10"/>
-      <c r="J203" s="10"/>
-      <c r="K203" s="7"/>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="7" t="s">
+      <c r="C204" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C204" s="7" t="s">
+      <c r="D204" s="8"/>
+      <c r="E204" s="8"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="8"/>
+      <c r="H204" s="8"/>
+      <c r="I204" s="11"/>
+      <c r="J204" s="11"/>
+      <c r="K204" s="8"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="D204" s="7"/>
-      <c r="E204" s="7"/>
-      <c r="F204" s="7"/>
-      <c r="G204" s="7"/>
-      <c r="H204" s="7"/>
-      <c r="I204" s="10"/>
-      <c r="J204" s="10"/>
-      <c r="K204" s="7"/>
-    </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="7" t="s">
+      <c r="C205" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="C205" s="7" t="s">
+      <c r="D205" s="8"/>
+      <c r="E205" s="8"/>
+      <c r="F205" s="8"/>
+      <c r="G205" s="8"/>
+      <c r="H205" s="8"/>
+      <c r="I205" s="11"/>
+      <c r="J205" s="11"/>
+      <c r="K205" s="8"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="D205" s="7"/>
-      <c r="E205" s="7"/>
-      <c r="F205" s="7"/>
-      <c r="G205" s="7"/>
-      <c r="H205" s="7"/>
-      <c r="I205" s="10"/>
-      <c r="J205" s="10"/>
-      <c r="K205" s="7"/>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="7" t="s">
+      <c r="C206" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="D206" s="8"/>
+      <c r="E206" s="8"/>
+      <c r="F206" s="8"/>
+      <c r="G206" s="8"/>
+      <c r="H206" s="8"/>
+      <c r="I206" s="11"/>
+      <c r="J206" s="11"/>
+      <c r="K206" s="8"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="D206" s="7"/>
-      <c r="E206" s="7"/>
-      <c r="F206" s="7"/>
-      <c r="G206" s="7"/>
-      <c r="H206" s="7"/>
-      <c r="I206" s="10"/>
-      <c r="J206" s="10"/>
-      <c r="K206" s="7"/>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="7" t="s">
+      <c r="C207" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C207" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="D207" s="7"/>
-      <c r="E207" s="7"/>
-      <c r="F207" s="7"/>
-      <c r="G207" s="7"/>
-      <c r="H207" s="7"/>
-      <c r="I207" s="10"/>
-      <c r="J207" s="10"/>
-      <c r="K207" s="7"/>
+      <c r="D207" s="8"/>
+      <c r="E207" s="8"/>
+      <c r="F207" s="8"/>
+      <c r="G207" s="8"/>
+      <c r="H207" s="8"/>
+      <c r="I207" s="11"/>
+      <c r="J207" s="11"/>
+      <c r="K207" s="8"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="7" t="s">
+      <c r="A208" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C208" s="7"/>
-      <c r="D208" s="7"/>
-      <c r="E208" s="7"/>
-      <c r="F208" s="7"/>
-      <c r="G208" s="7"/>
-      <c r="H208" s="7"/>
-      <c r="I208" s="10"/>
-      <c r="J208" s="10"/>
-      <c r="K208" s="7"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="8"/>
+      <c r="E208" s="8"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="8"/>
+      <c r="H208" s="8"/>
+      <c r="I208" s="11"/>
+      <c r="J208" s="11"/>
+      <c r="K208" s="8"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="7" t="s">
+      <c r="A209" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C209" s="7" t="s">
+      <c r="C209" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="D209" s="7"/>
-      <c r="E209" s="7"/>
-      <c r="F209" s="7"/>
-      <c r="G209" s="7"/>
-      <c r="H209" s="7"/>
-      <c r="I209" s="10"/>
-      <c r="J209" s="10"/>
-      <c r="K209" s="7"/>
+      <c r="D209" s="8"/>
+      <c r="E209" s="8"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
+      <c r="H209" s="8"/>
+      <c r="I209" s="11"/>
+      <c r="J209" s="11"/>
+      <c r="K209" s="8"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="7" t="s">
+      <c r="A210" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C210" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="E210" s="7"/>
-      <c r="F210" s="7"/>
-      <c r="G210" s="7"/>
-      <c r="H210" s="7"/>
-      <c r="I210" s="7"/>
-      <c r="J210" s="7"/>
-      <c r="K210" s="7"/>
+      <c r="D210" s="8"/>
+      <c r="E210" s="8"/>
+      <c r="F210" s="8"/>
+      <c r="G210" s="8"/>
+      <c r="H210" s="8"/>
+      <c r="I210" s="11"/>
+      <c r="J210" s="11"/>
+      <c r="K210" s="8"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="7" t="s">
+      <c r="A211" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C211" s="7"/>
-      <c r="D211" s="7"/>
+      <c r="C211" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D211" s="8"/>
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
       <c r="G211" s="8"/>
       <c r="H211" s="8"/>
-      <c r="I211" s="9"/>
-      <c r="J211" s="9"/>
+      <c r="I211" s="11"/>
+      <c r="J211" s="11"/>
       <c r="K211" s="8"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="C212" s="7" t="s">
+      <c r="A212" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="D212" s="7"/>
+      <c r="C212" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D212" s="8"/>
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
       <c r="G212" s="8"/>
       <c r="H212" s="8"/>
-      <c r="I212" s="9"/>
-      <c r="J212" s="9"/>
+      <c r="I212" s="11"/>
+      <c r="J212" s="11"/>
       <c r="K212" s="8"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C213" s="7" t="s">
+      <c r="A213" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="D213" s="7"/>
-      <c r="E213" s="7"/>
-      <c r="F213" s="7"/>
-      <c r="G213" s="7"/>
-      <c r="H213" s="7"/>
-      <c r="I213" s="10"/>
-      <c r="J213" s="10"/>
-      <c r="K213" s="7"/>
+      <c r="C213" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="D213" s="8"/>
+      <c r="E213" s="8"/>
+      <c r="F213" s="8"/>
+      <c r="G213" s="8"/>
+      <c r="H213" s="8"/>
+      <c r="I213" s="11"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="8"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C214" s="7" t="s">
+      <c r="A214" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="D214" s="7"/>
+      <c r="C214" s="8"/>
+      <c r="D214" s="8"/>
       <c r="E214" s="8"/>
       <c r="F214" s="8"/>
       <c r="G214" s="8"/>
       <c r="H214" s="8"/>
-      <c r="I214" s="9"/>
-      <c r="J214" s="9"/>
+      <c r="I214" s="11"/>
+      <c r="J214" s="11"/>
       <c r="K214" s="8"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="7" t="s">
+      <c r="A215" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C215" s="7" t="s">
+      <c r="C215" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="D215" s="14"/>
-      <c r="E215" s="7"/>
-      <c r="F215" s="7"/>
-      <c r="G215" s="7"/>
-      <c r="H215" s="7"/>
-      <c r="I215" s="10"/>
-      <c r="J215" s="10"/>
-      <c r="K215" s="7"/>
+      <c r="D215" s="8"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="8"/>
+      <c r="G215" s="8"/>
+      <c r="H215" s="8"/>
+      <c r="I215" s="11"/>
+      <c r="J215" s="11"/>
+      <c r="K215" s="8"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="7" t="s">
+      <c r="A216" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="C216" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="D216" s="14"/>
-      <c r="E216" s="7"/>
-      <c r="F216" s="7"/>
-      <c r="G216" s="7"/>
-      <c r="H216" s="7"/>
-      <c r="I216" s="10"/>
-      <c r="J216" s="10"/>
-      <c r="K216" s="7"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="8"/>
+      <c r="F216" s="8"/>
+      <c r="G216" s="8"/>
+      <c r="H216" s="8"/>
+      <c r="I216" s="11"/>
+      <c r="J216" s="11"/>
+      <c r="K216" s="8"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="7" t="s">
+      <c r="A217" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C217" s="7" t="s">
+      <c r="C217" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="D217" s="7"/>
+      <c r="D217" s="8"/>
       <c r="E217" s="8"/>
       <c r="F217" s="8"/>
       <c r="G217" s="8"/>
       <c r="H217" s="8"/>
-      <c r="I217" s="9"/>
-      <c r="J217" s="9"/>
+      <c r="I217" s="11"/>
+      <c r="J217" s="11"/>
       <c r="K217" s="8"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="7" t="s">
+      <c r="A218" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C218" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="D218" s="14"/>
-      <c r="E218" s="7"/>
-      <c r="F218" s="7"/>
-      <c r="G218" s="7"/>
-      <c r="H218" s="7"/>
-      <c r="I218" s="10"/>
-      <c r="J218" s="10"/>
-      <c r="K218" s="7"/>
+      <c r="D218" s="8"/>
+      <c r="E218" s="8"/>
+      <c r="F218" s="8"/>
+      <c r="G218" s="8"/>
+      <c r="H218" s="8"/>
+      <c r="I218" s="11"/>
+      <c r="J218" s="11"/>
+      <c r="K218" s="8"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="7" t="s">
+      <c r="A219" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C219" s="7" t="s">
+      <c r="C219" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="D219" s="14"/>
-      <c r="E219" s="7"/>
-      <c r="F219" s="7"/>
-      <c r="G219" s="7"/>
-      <c r="H219" s="7"/>
-      <c r="I219" s="10"/>
-      <c r="J219" s="10"/>
-      <c r="K219" s="7"/>
+      <c r="D219" s="8"/>
+      <c r="E219" s="8"/>
+      <c r="F219" s="8"/>
+      <c r="G219" s="8"/>
+      <c r="H219" s="8"/>
+      <c r="I219" s="11"/>
+      <c r="J219" s="11"/>
+      <c r="K219" s="8"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="7" t="s">
+      <c r="A220" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="C220" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="D220" s="7"/>
+      <c r="D220" s="8"/>
       <c r="E220" s="8"/>
       <c r="F220" s="8"/>
       <c r="G220" s="8"/>
       <c r="H220" s="8"/>
-      <c r="I220" s="9"/>
-      <c r="J220" s="9"/>
+      <c r="I220" s="11"/>
+      <c r="J220" s="11"/>
       <c r="K220" s="8"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="7" t="s">
+      <c r="A221" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C221" s="7"/>
-      <c r="D221" s="14"/>
-      <c r="E221" s="7"/>
-      <c r="F221" s="7"/>
-      <c r="G221" s="7"/>
-      <c r="H221" s="7"/>
-      <c r="I221" s="10"/>
-      <c r="J221" s="10"/>
-      <c r="K221" s="7"/>
+      <c r="C221" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D221" s="8"/>
+      <c r="E221" s="8"/>
+      <c r="F221" s="8"/>
+      <c r="G221" s="8"/>
+      <c r="H221" s="8"/>
+      <c r="I221" s="11"/>
+      <c r="J221" s="11"/>
+      <c r="K221" s="8"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="7" t="s">
+      <c r="A222" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C222" s="8"/>
+      <c r="D222" s="8"/>
+      <c r="E222" s="8"/>
+      <c r="F222" s="8"/>
+      <c r="G222" s="8"/>
+      <c r="H222" s="8"/>
+      <c r="I222" s="11"/>
+      <c r="J222" s="11"/>
+      <c r="K222" s="8"/>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="D222" s="14"/>
-      <c r="E222" s="7"/>
-      <c r="F222" s="7"/>
-      <c r="G222" s="7"/>
-      <c r="H222" s="7"/>
-      <c r="I222" s="10"/>
-      <c r="J222" s="10"/>
-      <c r="K222" s="7"/>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="7" t="s">
+      <c r="C223" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C223" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="D223" s="7"/>
+      <c r="D223" s="8"/>
       <c r="E223" s="8"/>
       <c r="F223" s="8"/>
       <c r="G223" s="8"/>
       <c r="H223" s="8"/>
-      <c r="I223" s="9"/>
-      <c r="J223" s="9"/>
+      <c r="I223" s="11"/>
+      <c r="J223" s="11"/>
       <c r="K223" s="8"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="7" t="s">
+      <c r="A224" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C224" s="7" t="s">
+      <c r="E224" s="8"/>
+      <c r="F224" s="8"/>
+      <c r="G224" s="8"/>
+      <c r="H224" s="8"/>
+      <c r="I224" s="8"/>
+      <c r="J224" s="8"/>
+      <c r="K224" s="8"/>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="D224" s="7"/>
-      <c r="E224" s="7"/>
-      <c r="F224" s="7"/>
-      <c r="G224" s="7"/>
-      <c r="H224" s="7"/>
-      <c r="I224" s="10"/>
-      <c r="J224" s="10"/>
-      <c r="K224" s="7"/>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="C225" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="D225" s="7"/>
-      <c r="E225" s="7"/>
-      <c r="F225" s="7"/>
-      <c r="G225" s="7"/>
-      <c r="H225" s="7"/>
+      <c r="C225" s="8"/>
+      <c r="D225" s="8"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="9"/>
+      <c r="G225" s="9"/>
+      <c r="H225" s="9"/>
       <c r="I225" s="10"/>
       <c r="J225" s="10"/>
-      <c r="K225" s="7"/>
+      <c r="K225" s="9"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="7" t="s">
+      <c r="A226" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D226" s="8"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9"/>
+      <c r="H226" s="9"/>
+      <c r="I226" s="10"/>
+      <c r="J226" s="10"/>
+      <c r="K226" s="9"/>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="E226" s="7"/>
-      <c r="F226" s="7"/>
-      <c r="G226" s="7"/>
-      <c r="H226" s="7"/>
-      <c r="I226" s="7"/>
-      <c r="J226" s="7"/>
-      <c r="K226" s="7"/>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="7" t="s">
+      <c r="C227" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="C227" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D227" s="7"/>
+      <c r="D227" s="8"/>
       <c r="E227" s="8"/>
       <c r="F227" s="8"/>
       <c r="G227" s="8"/>
       <c r="H227" s="8"/>
-      <c r="I227" s="9"/>
-      <c r="J227" s="9"/>
+      <c r="I227" s="11"/>
+      <c r="J227" s="11"/>
       <c r="K227" s="8"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="7" t="s">
+      <c r="A228" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C228" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="C228" s="7" t="s">
+      <c r="D228" s="8"/>
+      <c r="E228" s="9"/>
+      <c r="F228" s="9"/>
+      <c r="G228" s="9"/>
+      <c r="H228" s="9"/>
+      <c r="I228" s="10"/>
+      <c r="J228" s="10"/>
+      <c r="K228" s="9"/>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="D228" s="7"/>
-      <c r="E228" s="8"/>
-      <c r="F228" s="8"/>
-      <c r="G228" s="8"/>
-      <c r="H228" s="8"/>
-      <c r="I228" s="9"/>
-      <c r="J228" s="9"/>
-      <c r="K228" s="8"/>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="7" t="s">
+      <c r="C229" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="C229" s="7" t="s">
+      <c r="D229" s="15"/>
+      <c r="E229" s="8"/>
+      <c r="F229" s="8"/>
+      <c r="G229" s="8"/>
+      <c r="H229" s="8"/>
+      <c r="I229" s="11"/>
+      <c r="J229" s="11"/>
+      <c r="K229" s="8"/>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="D229" s="7"/>
-      <c r="E229" s="7"/>
-      <c r="F229" s="7"/>
-      <c r="G229" s="7"/>
-      <c r="H229" s="7"/>
-      <c r="I229" s="10"/>
-      <c r="J229" s="10"/>
-      <c r="K229" s="7"/>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="7" t="s">
+      <c r="C230" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="D230" s="15"/>
+      <c r="E230" s="8"/>
+      <c r="F230" s="8"/>
+      <c r="G230" s="8"/>
+      <c r="H230" s="8"/>
+      <c r="I230" s="11"/>
+      <c r="J230" s="11"/>
+      <c r="K230" s="8"/>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D230" s="7"/>
-      <c r="E230" s="7"/>
-      <c r="F230" s="7"/>
-      <c r="G230" s="7"/>
-      <c r="H230" s="7"/>
-      <c r="I230" s="10"/>
-      <c r="J230" s="10"/>
-      <c r="K230" s="7"/>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="7" t="s">
+      <c r="C231" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="D231" s="8"/>
+      <c r="E231" s="9"/>
+      <c r="F231" s="9"/>
+      <c r="G231" s="9"/>
+      <c r="H231" s="9"/>
+      <c r="I231" s="10"/>
+      <c r="J231" s="10"/>
+      <c r="K231" s="9"/>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="D231" s="7"/>
-      <c r="E231" s="8"/>
-      <c r="F231" s="8"/>
-      <c r="G231" s="8"/>
-      <c r="H231" s="8"/>
-      <c r="I231" s="9"/>
-      <c r="J231" s="9"/>
-      <c r="K231" s="8"/>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="7" t="s">
+      <c r="C232" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="C232" s="7" t="s">
+      <c r="D232" s="15"/>
+      <c r="E232" s="8"/>
+      <c r="F232" s="8"/>
+      <c r="G232" s="8"/>
+      <c r="H232" s="8"/>
+      <c r="I232" s="11"/>
+      <c r="J232" s="11"/>
+      <c r="K232" s="8"/>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="D232" s="7"/>
-      <c r="E232" s="7"/>
-      <c r="F232" s="7"/>
-      <c r="G232" s="7"/>
-      <c r="H232" s="7"/>
-      <c r="I232" s="10"/>
-      <c r="J232" s="10"/>
-      <c r="K232" s="7"/>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="7" t="s">
+      <c r="C233" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="C233" s="7"/>
-      <c r="D233" s="7"/>
-      <c r="E233" s="7"/>
-      <c r="F233" s="7"/>
-      <c r="G233" s="7"/>
-      <c r="H233" s="7"/>
-      <c r="I233" s="10"/>
-      <c r="J233" s="10"/>
-      <c r="K233" s="7"/>
+      <c r="D233" s="15"/>
+      <c r="E233" s="8"/>
+      <c r="F233" s="8"/>
+      <c r="G233" s="8"/>
+      <c r="H233" s="8"/>
+      <c r="I233" s="11"/>
+      <c r="J233" s="11"/>
+      <c r="K233" s="8"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="7" t="s">
+      <c r="A234" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C234" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="D234" s="7"/>
-      <c r="E234" s="8"/>
-      <c r="F234" s="8"/>
-      <c r="G234" s="8"/>
-      <c r="H234" s="8"/>
-      <c r="I234" s="9"/>
-      <c r="J234" s="9"/>
-      <c r="K234" s="8"/>
+      <c r="D234" s="8"/>
+      <c r="E234" s="9"/>
+      <c r="F234" s="9"/>
+      <c r="G234" s="9"/>
+      <c r="H234" s="9"/>
+      <c r="I234" s="10"/>
+      <c r="J234" s="10"/>
+      <c r="K234" s="9"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="7" t="s">
+      <c r="A235" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C235" s="7" t="s">
+      <c r="C235" s="8"/>
+      <c r="D235" s="15"/>
+      <c r="E235" s="8"/>
+      <c r="F235" s="8"/>
+      <c r="G235" s="8"/>
+      <c r="H235" s="8"/>
+      <c r="I235" s="11"/>
+      <c r="J235" s="11"/>
+      <c r="K235" s="8"/>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="D235" s="7"/>
-      <c r="E235" s="7"/>
-      <c r="F235" s="7"/>
-      <c r="G235" s="7"/>
-      <c r="H235" s="7"/>
-      <c r="I235" s="10"/>
-      <c r="J235" s="10"/>
-      <c r="K235" s="7"/>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="7" t="s">
+      <c r="C236" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C236" s="7" t="s">
+      <c r="D236" s="15"/>
+      <c r="E236" s="8"/>
+      <c r="F236" s="8"/>
+      <c r="G236" s="8"/>
+      <c r="H236" s="8"/>
+      <c r="I236" s="11"/>
+      <c r="J236" s="11"/>
+      <c r="K236" s="8"/>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="D236" s="7"/>
-      <c r="E236" s="7"/>
-      <c r="F236" s="7"/>
-      <c r="G236" s="7"/>
-      <c r="H236" s="7"/>
-      <c r="I236" s="10"/>
-      <c r="J236" s="10"/>
-      <c r="K236" s="7"/>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="7" t="s">
+      <c r="C237" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="D237" s="8"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
+      <c r="H237" s="9"/>
+      <c r="I237" s="10"/>
+      <c r="J237" s="10"/>
+      <c r="K237" s="9"/>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="E237" s="7"/>
-      <c r="F237" s="7"/>
-      <c r="G237" s="7"/>
-      <c r="H237" s="7"/>
-      <c r="I237" s="7"/>
-      <c r="J237" s="7"/>
-      <c r="K237" s="7"/>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="7" t="s">
+      <c r="C238" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="C238" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="D238" s="7"/>
+      <c r="D238" s="8"/>
       <c r="E238" s="8"/>
       <c r="F238" s="8"/>
       <c r="G238" s="8"/>
       <c r="H238" s="8"/>
-      <c r="I238" s="9"/>
-      <c r="J238" s="9"/>
+      <c r="I238" s="11"/>
+      <c r="J238" s="11"/>
       <c r="K238" s="8"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="7" t="s">
+      <c r="A239" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C239" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="D239" s="8"/>
+      <c r="E239" s="8"/>
+      <c r="F239" s="8"/>
+      <c r="G239" s="8"/>
+      <c r="H239" s="8"/>
+      <c r="I239" s="11"/>
+      <c r="J239" s="11"/>
+      <c r="K239" s="8"/>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="D239" s="7"/>
-      <c r="E239" s="7"/>
-      <c r="F239" s="7"/>
-      <c r="G239" s="7"/>
-      <c r="H239" s="7"/>
-      <c r="I239" s="10"/>
-      <c r="J239" s="10"/>
-      <c r="K239" s="7"/>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="7" t="s">
+      <c r="E240" s="8"/>
+      <c r="F240" s="8"/>
+      <c r="G240" s="8"/>
+      <c r="H240" s="8"/>
+      <c r="I240" s="8"/>
+      <c r="J240" s="8"/>
+      <c r="K240" s="8"/>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C241" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="D240" s="7"/>
-      <c r="E240" s="7"/>
-      <c r="F240" s="7"/>
-      <c r="G240" s="7"/>
-      <c r="H240" s="7"/>
-      <c r="I240" s="10"/>
-      <c r="J240" s="10"/>
-      <c r="K240" s="7"/>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D241" s="7"/>
-      <c r="E241" s="7"/>
-      <c r="F241" s="7"/>
-      <c r="G241" s="7"/>
-      <c r="H241" s="7"/>
+      <c r="D241" s="8"/>
+      <c r="E241" s="9"/>
+      <c r="F241" s="9"/>
+      <c r="G241" s="9"/>
+      <c r="H241" s="9"/>
       <c r="I241" s="10"/>
       <c r="J241" s="10"/>
-      <c r="K241" s="7"/>
+      <c r="K241" s="9"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="C242" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D242" s="7"/>
-      <c r="E242" s="7"/>
-      <c r="F242" s="7"/>
-      <c r="G242" s="7"/>
-      <c r="H242" s="7"/>
+      <c r="A242" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D242" s="8"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="9"/>
+      <c r="G242" s="9"/>
+      <c r="H242" s="9"/>
       <c r="I242" s="10"/>
       <c r="J242" s="10"/>
-      <c r="K242" s="7"/>
+      <c r="K242" s="9"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="7" t="s">
+      <c r="A243" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D243" s="8"/>
+      <c r="E243" s="8"/>
+      <c r="F243" s="8"/>
+      <c r="G243" s="8"/>
+      <c r="H243" s="8"/>
+      <c r="I243" s="11"/>
+      <c r="J243" s="11"/>
+      <c r="K243" s="8"/>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="C243" s="7" t="s">
+      <c r="C244" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="D243" s="7"/>
-      <c r="E243" s="7"/>
-      <c r="F243" s="7"/>
-      <c r="G243" s="7"/>
-      <c r="H243" s="7"/>
-      <c r="I243" s="10"/>
-      <c r="J243" s="10"/>
-      <c r="K243" s="7"/>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="7" t="s">
+      <c r="D244" s="8"/>
+      <c r="E244" s="8"/>
+      <c r="F244" s="8"/>
+      <c r="G244" s="8"/>
+      <c r="H244" s="8"/>
+      <c r="I244" s="11"/>
+      <c r="J244" s="11"/>
+      <c r="K244" s="8"/>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="C244" s="7" t="s">
+      <c r="C245" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="D244" s="7"/>
-      <c r="E244" s="7"/>
-      <c r="F244" s="7"/>
-      <c r="G244" s="7"/>
-      <c r="H244" s="7"/>
-      <c r="I244" s="7"/>
-      <c r="J244" s="7"/>
-      <c r="K244" s="7"/>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="7" t="s">
+      <c r="D245" s="8"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="9"/>
+      <c r="G245" s="9"/>
+      <c r="H245" s="9"/>
+      <c r="I245" s="10"/>
+      <c r="J245" s="10"/>
+      <c r="K245" s="9"/>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="C245" s="15" t="s">
+      <c r="C246" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="D245" s="15"/>
-      <c r="E245" s="15"/>
-      <c r="F245" s="15"/>
-      <c r="G245" s="15"/>
-      <c r="H245" s="15"/>
-      <c r="I245" s="15"/>
-      <c r="J245" s="15"/>
-      <c r="K245" s="15"/>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="7" t="s">
+      <c r="D246" s="8"/>
+      <c r="E246" s="8"/>
+      <c r="F246" s="8"/>
+      <c r="G246" s="8"/>
+      <c r="H246" s="8"/>
+      <c r="I246" s="11"/>
+      <c r="J246" s="11"/>
+      <c r="K246" s="8"/>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="C246" s="7" t="s">
+      <c r="C247" s="8"/>
+      <c r="D247" s="8"/>
+      <c r="E247" s="8"/>
+      <c r="F247" s="8"/>
+      <c r="G247" s="8"/>
+      <c r="H247" s="8"/>
+      <c r="I247" s="11"/>
+      <c r="J247" s="11"/>
+      <c r="K247" s="8"/>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="D246" s="7"/>
-      <c r="E246" s="7"/>
-      <c r="F246" s="7"/>
-      <c r="G246" s="7"/>
-      <c r="H246" s="7"/>
-      <c r="I246" s="7"/>
-      <c r="J246" s="7"/>
-      <c r="K246" s="7"/>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="7" t="s">
+      <c r="C248" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="C247" s="7" t="s">
+      <c r="D248" s="8"/>
+      <c r="E248" s="9"/>
+      <c r="F248" s="9"/>
+      <c r="G248" s="9"/>
+      <c r="H248" s="9"/>
+      <c r="I248" s="10"/>
+      <c r="J248" s="10"/>
+      <c r="K248" s="9"/>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="D247" s="7"/>
-      <c r="E247" s="7"/>
-      <c r="F247" s="7"/>
-      <c r="G247" s="7"/>
-      <c r="H247" s="7"/>
-      <c r="I247" s="7"/>
-      <c r="J247" s="7"/>
-      <c r="K247" s="7"/>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="7" t="s">
+      <c r="C249" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="C248" s="7" t="s">
+      <c r="D249" s="8"/>
+      <c r="E249" s="8"/>
+      <c r="F249" s="8"/>
+      <c r="G249" s="8"/>
+      <c r="H249" s="8"/>
+      <c r="I249" s="11"/>
+      <c r="J249" s="11"/>
+      <c r="K249" s="8"/>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D248" s="7"/>
-      <c r="E248" s="7"/>
-      <c r="F248" s="7"/>
-      <c r="G248" s="7"/>
-      <c r="H248" s="7"/>
-      <c r="I248" s="7"/>
-      <c r="J248" s="7"/>
-      <c r="K248" s="7"/>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="7" t="s">
+      <c r="C250" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="C249" s="7"/>
-      <c r="D249" s="7"/>
-      <c r="E249" s="7"/>
-      <c r="F249" s="7"/>
-      <c r="G249" s="7"/>
-      <c r="H249" s="7"/>
-      <c r="I249" s="7"/>
-      <c r="J249" s="7"/>
-      <c r="K249" s="7"/>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="7" t="s">
+      <c r="D250" s="8"/>
+      <c r="E250" s="8"/>
+      <c r="F250" s="8"/>
+      <c r="G250" s="8"/>
+      <c r="H250" s="8"/>
+      <c r="I250" s="11"/>
+      <c r="J250" s="11"/>
+      <c r="K250" s="8"/>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="C250" s="7" t="s">
+      <c r="C251" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="D250" s="7"/>
-      <c r="E250" s="7"/>
-      <c r="F250" s="7"/>
-      <c r="G250" s="7"/>
-      <c r="H250" s="7"/>
-      <c r="I250" s="7"/>
-      <c r="J250" s="7"/>
-      <c r="K250" s="7"/>
-    </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="7" t="s">
+      <c r="E251" s="8"/>
+      <c r="F251" s="8"/>
+      <c r="G251" s="8"/>
+      <c r="H251" s="8"/>
+      <c r="I251" s="8"/>
+      <c r="J251" s="8"/>
+      <c r="K251" s="8"/>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="C251" s="7" t="s">
+      <c r="C252" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="D251" s="7"/>
-      <c r="E251" s="7"/>
-      <c r="F251" s="7"/>
-      <c r="G251" s="7"/>
-      <c r="H251" s="7"/>
-      <c r="I251" s="7"/>
-      <c r="J251" s="7"/>
-      <c r="K251" s="7"/>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="7" t="s">
+      <c r="D252" s="8"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="9"/>
+      <c r="G252" s="9"/>
+      <c r="H252" s="9"/>
+      <c r="I252" s="10"/>
+      <c r="J252" s="10"/>
+      <c r="K252" s="9"/>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C253" s="8" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="D253" s="6"/>
+      <c r="D253" s="8"/>
       <c r="E253" s="8"/>
       <c r="F253" s="8"/>
       <c r="G253" s="8"/>
       <c r="H253" s="8"/>
-      <c r="I253" s="9"/>
-      <c r="J253" s="9"/>
+      <c r="I253" s="11"/>
+      <c r="J253" s="11"/>
       <c r="K253" s="8"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="C254" s="6"/>
-      <c r="D254" s="7"/>
+      <c r="A254" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D254" s="8"/>
       <c r="E254" s="8"/>
       <c r="F254" s="8"/>
       <c r="G254" s="8"/>
       <c r="H254" s="8"/>
-      <c r="I254" s="9"/>
-      <c r="J254" s="9"/>
+      <c r="I254" s="11"/>
+      <c r="J254" s="11"/>
       <c r="K254" s="8"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="7" t="s">
+      <c r="A255" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C255" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="C255" s="6" t="s">
+      <c r="D255" s="8"/>
+      <c r="E255" s="8"/>
+      <c r="F255" s="8"/>
+      <c r="G255" s="8"/>
+      <c r="H255" s="8"/>
+      <c r="I255" s="11"/>
+      <c r="J255" s="11"/>
+      <c r="K255" s="8"/>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="D255" s="6"/>
-      <c r="E255" s="7"/>
-      <c r="F255" s="7"/>
-      <c r="G255" s="7"/>
-      <c r="H255" s="7"/>
-      <c r="I255" s="10"/>
-      <c r="J255" s="10"/>
-      <c r="K255" s="7"/>
-    </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="7" t="s">
+      <c r="C256" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="C256" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="D256" s="11"/>
+      <c r="D256" s="8"/>
       <c r="E256" s="8"/>
       <c r="F256" s="8"/>
       <c r="G256" s="8"/>
       <c r="H256" s="8"/>
-      <c r="I256" s="9"/>
-      <c r="J256" s="9"/>
+      <c r="I256" s="11"/>
+      <c r="J256" s="11"/>
       <c r="K256" s="8"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="7" t="s">
+      <c r="A257" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C257" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="C257" s="11" t="s">
+      <c r="D257" s="8"/>
+      <c r="E257" s="8"/>
+      <c r="F257" s="8"/>
+      <c r="G257" s="8"/>
+      <c r="H257" s="8"/>
+      <c r="I257" s="11"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="8"/>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="D257" s="11"/>
-      <c r="E257" s="7"/>
-      <c r="F257" s="7"/>
-      <c r="G257" s="7"/>
-      <c r="H257" s="7"/>
-      <c r="I257" s="10"/>
-      <c r="J257" s="10"/>
-      <c r="K257" s="7"/>
-    </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="7" t="s">
+      <c r="C258" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="C258" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="D258" s="11"/>
+      <c r="D258" s="8"/>
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
       <c r="G258" s="8"/>
       <c r="H258" s="8"/>
-      <c r="I258" s="9"/>
-      <c r="J258" s="9"/>
+      <c r="I258" s="8"/>
+      <c r="J258" s="8"/>
       <c r="K258" s="8"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="7" t="s">
+      <c r="A259" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="C259" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="C259" s="11" t="s">
+      <c r="D259" s="16"/>
+      <c r="E259" s="16"/>
+      <c r="F259" s="16"/>
+      <c r="G259" s="16"/>
+      <c r="H259" s="16"/>
+      <c r="I259" s="16"/>
+      <c r="J259" s="16"/>
+      <c r="K259" s="16"/>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D259" s="11"/>
-      <c r="E259" s="7"/>
-      <c r="F259" s="7"/>
-      <c r="G259" s="7"/>
-      <c r="H259" s="7"/>
-      <c r="I259" s="10"/>
-      <c r="J259" s="10"/>
-      <c r="K259" s="7"/>
-    </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="7" t="s">
+      <c r="C260" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="C260" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="D260" s="11"/>
+      <c r="D260" s="8"/>
       <c r="E260" s="8"/>
       <c r="F260" s="8"/>
       <c r="G260" s="8"/>
       <c r="H260" s="8"/>
-      <c r="I260" s="9"/>
-      <c r="J260" s="9"/>
+      <c r="I260" s="8"/>
+      <c r="J260" s="8"/>
       <c r="K260" s="8"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="7" t="s">
+      <c r="A261" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C261" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="C261" s="11" t="s">
+      <c r="D261" s="8"/>
+      <c r="E261" s="8"/>
+      <c r="F261" s="8"/>
+      <c r="G261" s="8"/>
+      <c r="H261" s="8"/>
+      <c r="I261" s="8"/>
+      <c r="J261" s="8"/>
+      <c r="K261" s="8"/>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="D261" s="11"/>
-      <c r="E261" s="7"/>
-      <c r="F261" s="7"/>
-      <c r="G261" s="7"/>
-      <c r="H261" s="7"/>
-      <c r="I261" s="10"/>
-      <c r="J261" s="10"/>
-      <c r="K261" s="7"/>
-    </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="7" t="s">
+      <c r="C262" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="C262" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="D262" s="11"/>
+      <c r="D262" s="8"/>
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
       <c r="G262" s="8"/>
       <c r="H262" s="8"/>
-      <c r="I262" s="9"/>
-      <c r="J262" s="9"/>
+      <c r="I262" s="8"/>
+      <c r="J262" s="8"/>
       <c r="K262" s="8"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="7"/>
-      <c r="C263" s="11"/>
-      <c r="D263" s="11"/>
-      <c r="E263" s="7"/>
-      <c r="F263" s="7"/>
-      <c r="G263" s="7"/>
-      <c r="H263" s="7"/>
-      <c r="I263" s="10"/>
-      <c r="J263" s="10"/>
-      <c r="K263" s="7"/>
+      <c r="A263" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="C263" s="8"/>
+      <c r="D263" s="8"/>
+      <c r="E263" s="8"/>
+      <c r="F263" s="8"/>
+      <c r="G263" s="8"/>
+      <c r="H263" s="8"/>
+      <c r="I263" s="8"/>
+      <c r="J263" s="8"/>
+      <c r="K263" s="8"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="7"/>
-      <c r="C264" s="7"/>
-      <c r="E264" s="7"/>
-      <c r="F264" s="7"/>
-      <c r="G264" s="7"/>
-      <c r="H264" s="7"/>
-      <c r="I264" s="7"/>
-      <c r="J264" s="7"/>
-      <c r="K264" s="7"/>
-    </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="7"/>
-      <c r="C265" s="11"/>
-      <c r="D265" s="11"/>
+      <c r="A264" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="D264" s="8"/>
+      <c r="E264" s="8"/>
+      <c r="F264" s="8"/>
+      <c r="G264" s="8"/>
+      <c r="H264" s="8"/>
+      <c r="I264" s="8"/>
+      <c r="J264" s="8"/>
+      <c r="K264" s="8"/>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A265" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D265" s="8"/>
       <c r="E265" s="8"/>
       <c r="F265" s="8"/>
       <c r="G265" s="8"/>
       <c r="H265" s="8"/>
-      <c r="I265" s="9"/>
-      <c r="J265" s="9"/>
+      <c r="I265" s="8"/>
+      <c r="J265" s="8"/>
       <c r="K265" s="8"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="7"/>
-      <c r="C266" s="11"/>
-      <c r="D266" s="11"/>
-      <c r="E266" s="7"/>
-      <c r="F266" s="7"/>
-      <c r="G266" s="7"/>
-      <c r="H266" s="7"/>
-      <c r="I266" s="10"/>
-      <c r="J266" s="10"/>
-      <c r="K266" s="7"/>
+      <c r="A266" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="7"/>
-      <c r="C267" s="11"/>
-      <c r="D267" s="11"/>
-      <c r="E267" s="8"/>
-      <c r="F267" s="8"/>
-      <c r="G267" s="8"/>
-      <c r="H267" s="8"/>
-      <c r="I267" s="9"/>
-      <c r="J267" s="9"/>
-      <c r="K267" s="8"/>
+      <c r="A267" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="D267" s="7"/>
+      <c r="E267" s="9"/>
+      <c r="F267" s="9"/>
+      <c r="G267" s="9"/>
+      <c r="H267" s="9"/>
+      <c r="I267" s="10"/>
+      <c r="J267" s="10"/>
+      <c r="K267" s="9"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="7"/>
+      <c r="A268" s="8" t="s">
+        <v>511</v>
+      </c>
       <c r="C268" s="7"/>
-      <c r="D268" s="7"/>
-      <c r="E268" s="8"/>
-      <c r="F268" s="8"/>
-      <c r="G268" s="8"/>
-      <c r="H268" s="8"/>
-      <c r="I268" s="9"/>
-      <c r="J268" s="9"/>
-      <c r="K268" s="8"/>
+      <c r="D268" s="8"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="9"/>
+      <c r="G268" s="9"/>
+      <c r="H268" s="9"/>
+      <c r="I268" s="10"/>
+      <c r="J268" s="10"/>
+      <c r="K268" s="9"/>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="7"/>
-      <c r="C269" s="7"/>
+      <c r="A269" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>513</v>
+      </c>
       <c r="D269" s="7"/>
-      <c r="E269" s="12"/>
-      <c r="F269" s="12"/>
-      <c r="G269" s="12"/>
-      <c r="H269" s="12"/>
-      <c r="I269" s="9"/>
-      <c r="J269" s="9"/>
+      <c r="E269" s="8"/>
+      <c r="F269" s="8"/>
+      <c r="G269" s="8"/>
+      <c r="H269" s="8"/>
+      <c r="I269" s="11"/>
+      <c r="J269" s="11"/>
       <c r="K269" s="8"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="7"/>
-      <c r="C270" s="11"/>
-      <c r="D270" s="11"/>
-      <c r="E270" s="7"/>
-      <c r="F270" s="7"/>
-      <c r="G270" s="7"/>
-      <c r="H270" s="7"/>
+      <c r="A270" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="D270" s="12"/>
+      <c r="E270" s="9"/>
+      <c r="F270" s="9"/>
+      <c r="G270" s="9"/>
+      <c r="H270" s="9"/>
       <c r="I270" s="10"/>
       <c r="J270" s="10"/>
-      <c r="K270" s="7"/>
+      <c r="K270" s="9"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="7"/>
-      <c r="C271" s="11"/>
-      <c r="D271" s="11"/>
+      <c r="A271" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C271" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="D271" s="12"/>
       <c r="E271" s="8"/>
       <c r="F271" s="8"/>
       <c r="G271" s="8"/>
       <c r="H271" s="8"/>
-      <c r="I271" s="9"/>
-      <c r="J271" s="9"/>
+      <c r="I271" s="11"/>
+      <c r="J271" s="11"/>
       <c r="K271" s="8"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="7"/>
-      <c r="C272" s="7"/>
-      <c r="D272" s="7"/>
-      <c r="E272" s="8"/>
-      <c r="F272" s="8"/>
-      <c r="G272" s="8"/>
-      <c r="H272" s="8"/>
-      <c r="I272" s="9"/>
-      <c r="J272" s="9"/>
-      <c r="K272" s="8"/>
+      <c r="A272" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C272" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D272" s="12"/>
+      <c r="E272" s="9"/>
+      <c r="F272" s="9"/>
+      <c r="G272" s="9"/>
+      <c r="H272" s="9"/>
+      <c r="I272" s="10"/>
+      <c r="J272" s="10"/>
+      <c r="K272" s="9"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="7"/>
-      <c r="C273" s="11"/>
-      <c r="D273" s="11"/>
-      <c r="E273" s="7"/>
-      <c r="F273" s="7"/>
-      <c r="G273" s="7"/>
-      <c r="H273" s="7"/>
-      <c r="I273" s="10"/>
-      <c r="J273" s="10"/>
-      <c r="K273" s="7"/>
+      <c r="A273" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="C273" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D273" s="12"/>
+      <c r="E273" s="8"/>
+      <c r="F273" s="8"/>
+      <c r="G273" s="8"/>
+      <c r="H273" s="8"/>
+      <c r="I273" s="11"/>
+      <c r="J273" s="11"/>
+      <c r="K273" s="8"/>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="7"/>
-      <c r="C274" s="11"/>
-      <c r="D274" s="11"/>
-      <c r="E274" s="8"/>
-      <c r="F274" s="8"/>
-      <c r="G274" s="8"/>
-      <c r="H274" s="8"/>
-      <c r="I274" s="9"/>
-      <c r="J274" s="9"/>
-      <c r="K274" s="8"/>
+      <c r="A274" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D274" s="12"/>
+      <c r="E274" s="9"/>
+      <c r="F274" s="9"/>
+      <c r="G274" s="9"/>
+      <c r="H274" s="9"/>
+      <c r="I274" s="10"/>
+      <c r="J274" s="10"/>
+      <c r="K274" s="9"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="7"/>
-      <c r="C275" s="11"/>
-      <c r="D275" s="11"/>
-      <c r="E275" s="7"/>
-      <c r="F275" s="7"/>
-      <c r="G275" s="7"/>
-      <c r="H275" s="7"/>
-      <c r="I275" s="10"/>
-      <c r="J275" s="10"/>
-      <c r="K275" s="7"/>
+      <c r="A275" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C275" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="D275" s="12"/>
+      <c r="E275" s="8"/>
+      <c r="F275" s="8"/>
+      <c r="G275" s="8"/>
+      <c r="H275" s="8"/>
+      <c r="I275" s="11"/>
+      <c r="J275" s="11"/>
+      <c r="K275" s="8"/>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="7"/>
-      <c r="C276" s="11"/>
-      <c r="D276" s="11"/>
-      <c r="E276" s="8"/>
-      <c r="F276" s="8"/>
-      <c r="G276" s="8"/>
-      <c r="H276" s="8"/>
-      <c r="I276" s="9"/>
-      <c r="J276" s="9"/>
-      <c r="K276" s="8"/>
+      <c r="A276" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C276" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D276" s="12"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="9"/>
+      <c r="G276" s="9"/>
+      <c r="H276" s="9"/>
+      <c r="I276" s="10"/>
+      <c r="J276" s="10"/>
+      <c r="K276" s="9"/>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="7"/>
-      <c r="C277" s="11"/>
-      <c r="D277" s="11"/>
-      <c r="E277" s="7"/>
-      <c r="F277" s="7"/>
-      <c r="G277" s="7"/>
-      <c r="H277" s="7"/>
-      <c r="I277" s="10"/>
-      <c r="J277" s="10"/>
-      <c r="K277" s="7"/>
+      <c r="A277" s="8"/>
+      <c r="C277" s="12"/>
+      <c r="D277" s="12"/>
+      <c r="E277" s="8"/>
+      <c r="F277" s="8"/>
+      <c r="G277" s="8"/>
+      <c r="H277" s="8"/>
+      <c r="I277" s="11"/>
+      <c r="J277" s="11"/>
+      <c r="K277" s="8"/>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="7"/>
-      <c r="C278" s="11"/>
-      <c r="D278" s="11"/>
+      <c r="A278" s="8"/>
+      <c r="C278" s="8"/>
       <c r="E278" s="8"/>
       <c r="F278" s="8"/>
       <c r="G278" s="8"/>
       <c r="H278" s="8"/>
-      <c r="I278" s="9"/>
-      <c r="J278" s="9"/>
+      <c r="I278" s="8"/>
+      <c r="J278" s="8"/>
       <c r="K278" s="8"/>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="7"/>
-      <c r="C279" s="11"/>
-      <c r="D279" s="11"/>
-      <c r="E279" s="7"/>
-      <c r="F279" s="7"/>
-      <c r="G279" s="7"/>
-      <c r="H279" s="7"/>
+      <c r="A279" s="8"/>
+      <c r="C279" s="12"/>
+      <c r="D279" s="12"/>
+      <c r="E279" s="9"/>
+      <c r="F279" s="9"/>
+      <c r="G279" s="9"/>
+      <c r="H279" s="9"/>
       <c r="I279" s="10"/>
       <c r="J279" s="10"/>
-      <c r="K279" s="7"/>
+      <c r="K279" s="9"/>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="7"/>
-      <c r="C280" s="7"/>
-      <c r="E280" s="7"/>
-      <c r="F280" s="7"/>
-      <c r="G280" s="7"/>
-      <c r="H280" s="7"/>
-      <c r="I280" s="7"/>
-      <c r="J280" s="7"/>
-      <c r="K280" s="7"/>
+      <c r="A280" s="8"/>
+      <c r="C280" s="12"/>
+      <c r="D280" s="12"/>
+      <c r="E280" s="8"/>
+      <c r="F280" s="8"/>
+      <c r="G280" s="8"/>
+      <c r="H280" s="8"/>
+      <c r="I280" s="11"/>
+      <c r="J280" s="11"/>
+      <c r="K280" s="8"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="7"/>
-      <c r="C281" s="7"/>
-      <c r="D281" s="7"/>
-      <c r="E281" s="7"/>
-      <c r="F281" s="7"/>
-      <c r="G281" s="7"/>
-      <c r="H281" s="7"/>
-      <c r="I281" s="7"/>
-      <c r="J281" s="7"/>
-      <c r="K281" s="7"/>
+      <c r="A281" s="8"/>
+      <c r="C281" s="12"/>
+      <c r="D281" s="12"/>
+      <c r="E281" s="9"/>
+      <c r="F281" s="9"/>
+      <c r="G281" s="9"/>
+      <c r="H281" s="9"/>
+      <c r="I281" s="10"/>
+      <c r="J281" s="10"/>
+      <c r="K281" s="9"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="7"/>
-      <c r="C282" s="7"/>
-      <c r="E282" s="7"/>
-      <c r="F282" s="7"/>
-      <c r="G282" s="7"/>
-      <c r="H282" s="7"/>
-      <c r="I282" s="7"/>
-      <c r="J282" s="7"/>
-      <c r="K282" s="7"/>
+      <c r="A282" s="8"/>
+      <c r="C282" s="8"/>
+      <c r="D282" s="8"/>
+      <c r="E282" s="9"/>
+      <c r="F282" s="9"/>
+      <c r="G282" s="9"/>
+      <c r="H282" s="9"/>
+      <c r="I282" s="10"/>
+      <c r="J282" s="10"/>
+      <c r="K282" s="9"/>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="7"/>
-      <c r="C283" s="7"/>
-      <c r="D283" s="7"/>
-      <c r="E283" s="7"/>
-      <c r="F283" s="7"/>
-      <c r="G283" s="7"/>
-      <c r="H283" s="7"/>
-      <c r="I283" s="7"/>
-      <c r="J283" s="7"/>
-      <c r="K283" s="7"/>
+      <c r="A283" s="8"/>
+      <c r="C283" s="8"/>
+      <c r="D283" s="8"/>
+      <c r="E283" s="13"/>
+      <c r="F283" s="13"/>
+      <c r="G283" s="13"/>
+      <c r="H283" s="13"/>
+      <c r="I283" s="10"/>
+      <c r="J283" s="10"/>
+      <c r="K283" s="9"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="7"/>
-      <c r="C284" s="7"/>
-      <c r="E284" s="7"/>
-      <c r="F284" s="7"/>
-      <c r="G284" s="7"/>
-      <c r="H284" s="7"/>
-      <c r="I284" s="7"/>
-      <c r="J284" s="7"/>
-      <c r="K284" s="7"/>
+      <c r="A284" s="8"/>
+      <c r="C284" s="12"/>
+      <c r="D284" s="12"/>
+      <c r="E284" s="8"/>
+      <c r="F284" s="8"/>
+      <c r="G284" s="8"/>
+      <c r="H284" s="8"/>
+      <c r="I284" s="11"/>
+      <c r="J284" s="11"/>
+      <c r="K284" s="8"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="7"/>
-      <c r="C285" s="7"/>
-      <c r="D285" s="7"/>
-      <c r="E285" s="7"/>
-      <c r="F285" s="7"/>
-      <c r="G285" s="7"/>
-      <c r="H285" s="7"/>
-      <c r="I285" s="7"/>
-      <c r="J285" s="7"/>
-      <c r="K285" s="7"/>
+      <c r="A285" s="8"/>
+      <c r="C285" s="12"/>
+      <c r="D285" s="12"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="9"/>
+      <c r="G285" s="9"/>
+      <c r="H285" s="9"/>
+      <c r="I285" s="10"/>
+      <c r="J285" s="10"/>
+      <c r="K285" s="9"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="7"/>
-      <c r="C286" s="7"/>
-      <c r="E286" s="7"/>
-      <c r="F286" s="7"/>
-      <c r="G286" s="7"/>
-      <c r="H286" s="7"/>
-      <c r="I286" s="7"/>
-      <c r="J286" s="7"/>
-      <c r="K286" s="7"/>
-    </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C287" s="7"/>
-      <c r="D287" s="7"/>
-      <c r="E287" s="7"/>
-      <c r="F287" s="7"/>
-      <c r="G287" s="7"/>
-      <c r="H287" s="7"/>
-      <c r="I287" s="7"/>
-      <c r="J287" s="7"/>
-      <c r="K287" s="7"/>
-    </row>
+      <c r="A286" s="8"/>
+      <c r="C286" s="8"/>
+      <c r="D286" s="8"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="9"/>
+      <c r="G286" s="9"/>
+      <c r="H286" s="9"/>
+      <c r="I286" s="10"/>
+      <c r="J286" s="10"/>
+      <c r="K286" s="9"/>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="8"/>
+      <c r="C287" s="12"/>
+      <c r="D287" s="12"/>
+      <c r="E287" s="8"/>
+      <c r="F287" s="8"/>
+      <c r="G287" s="8"/>
+      <c r="H287" s="8"/>
+      <c r="I287" s="11"/>
+      <c r="J287" s="11"/>
+      <c r="K287" s="8"/>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="8"/>
+      <c r="C288" s="12"/>
+      <c r="D288" s="12"/>
+      <c r="E288" s="9"/>
+      <c r="F288" s="9"/>
+      <c r="G288" s="9"/>
+      <c r="H288" s="9"/>
+      <c r="I288" s="10"/>
+      <c r="J288" s="10"/>
+      <c r="K288" s="9"/>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="8"/>
+      <c r="C289" s="12"/>
+      <c r="D289" s="12"/>
+      <c r="E289" s="8"/>
+      <c r="F289" s="8"/>
+      <c r="G289" s="8"/>
+      <c r="H289" s="8"/>
+      <c r="I289" s="11"/>
+      <c r="J289" s="11"/>
+      <c r="K289" s="8"/>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="8"/>
+      <c r="C290" s="12"/>
+      <c r="D290" s="12"/>
+      <c r="E290" s="9"/>
+      <c r="F290" s="9"/>
+      <c r="G290" s="9"/>
+      <c r="H290" s="9"/>
+      <c r="I290" s="10"/>
+      <c r="J290" s="10"/>
+      <c r="K290" s="9"/>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="8"/>
+      <c r="C291" s="12"/>
+      <c r="D291" s="12"/>
+      <c r="E291" s="8"/>
+      <c r="F291" s="8"/>
+      <c r="G291" s="8"/>
+      <c r="H291" s="8"/>
+      <c r="I291" s="11"/>
+      <c r="J291" s="11"/>
+      <c r="K291" s="8"/>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="8"/>
+      <c r="C292" s="12"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="9"/>
+      <c r="F292" s="9"/>
+      <c r="G292" s="9"/>
+      <c r="H292" s="9"/>
+      <c r="I292" s="10"/>
+      <c r="J292" s="10"/>
+      <c r="K292" s="9"/>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="8"/>
+      <c r="C293" s="12"/>
+      <c r="D293" s="12"/>
+      <c r="E293" s="8"/>
+      <c r="F293" s="8"/>
+      <c r="G293" s="8"/>
+      <c r="H293" s="8"/>
+      <c r="I293" s="11"/>
+      <c r="J293" s="11"/>
+      <c r="K293" s="8"/>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="8"/>
+      <c r="C294" s="8"/>
+      <c r="E294" s="8"/>
+      <c r="F294" s="8"/>
+      <c r="G294" s="8"/>
+      <c r="H294" s="8"/>
+      <c r="I294" s="8"/>
+      <c r="J294" s="8"/>
+      <c r="K294" s="8"/>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="8"/>
+      <c r="C295" s="8"/>
+      <c r="D295" s="8"/>
+      <c r="E295" s="8"/>
+      <c r="F295" s="8"/>
+      <c r="G295" s="8"/>
+      <c r="H295" s="8"/>
+      <c r="I295" s="8"/>
+      <c r="J295" s="8"/>
+      <c r="K295" s="8"/>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="8"/>
+      <c r="C296" s="8"/>
+      <c r="E296" s="8"/>
+      <c r="F296" s="8"/>
+      <c r="G296" s="8"/>
+      <c r="H296" s="8"/>
+      <c r="I296" s="8"/>
+      <c r="J296" s="8"/>
+      <c r="K296" s="8"/>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="8"/>
+      <c r="C297" s="8"/>
+      <c r="D297" s="8"/>
+      <c r="E297" s="8"/>
+      <c r="F297" s="8"/>
+      <c r="G297" s="8"/>
+      <c r="H297" s="8"/>
+      <c r="I297" s="8"/>
+      <c r="J297" s="8"/>
+      <c r="K297" s="8"/>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="8"/>
+      <c r="C298" s="8"/>
+      <c r="E298" s="8"/>
+      <c r="F298" s="8"/>
+      <c r="G298" s="8"/>
+      <c r="H298" s="8"/>
+      <c r="I298" s="8"/>
+      <c r="J298" s="8"/>
+      <c r="K298" s="8"/>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="8"/>
+      <c r="C299" s="8"/>
+      <c r="D299" s="8"/>
+      <c r="E299" s="8"/>
+      <c r="F299" s="8"/>
+      <c r="G299" s="8"/>
+      <c r="H299" s="8"/>
+      <c r="I299" s="8"/>
+      <c r="J299" s="8"/>
+      <c r="K299" s="8"/>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="8"/>
+      <c r="C300" s="8"/>
+      <c r="E300" s="8"/>
+      <c r="F300" s="8"/>
+      <c r="G300" s="8"/>
+      <c r="H300" s="8"/>
+      <c r="I300" s="8"/>
+      <c r="J300" s="8"/>
+      <c r="K300" s="8"/>
+    </row>
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C301" s="8"/>
+      <c r="D301" s="8"/>
+      <c r="E301" s="8"/>
+      <c r="F301" s="8"/>
+      <c r="G301" s="8"/>
+      <c r="H301" s="8"/>
+      <c r="I301" s="8"/>
+      <c r="J301" s="8"/>
+      <c r="K301" s="8"/>
+    </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
